--- a/src/main/service/grade.xlsx
+++ b/src/main/service/grade.xlsx
@@ -73,7 +73,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -182,36 +182,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right/>
       <top/>
@@ -246,7 +232,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -280,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -290,12 +276,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1384,7 +1364,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1416,63 +1396,36 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8"/>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="11">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="11">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
